--- a/config_ios提审/task_zajindan_server.xlsx
+++ b/config_ios提审/task_zajindan_server.xlsx
@@ -8364,10 +8364,10 @@
   <dimension ref="A1:T371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D191" sqref="D191"/>
+      <selection pane="bottomRight" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13331,7 +13331,7 @@
         <v>21069</v>
       </c>
       <c r="B122" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>168</v>
